--- a/jupyter/input_data.xlsx
+++ b/jupyter/input_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://columbusglobal-my.sharepoint.com/personal/voev_columbusglobal_com/Documents/av_doc/ScheduleOpti_Presale/jypyter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voev\OneDrive - Columbus\av_doc\ScheduleOpti\jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{67EC5CA9-B236-4ABC-A310-7C3B0E3C53A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{350FE03D-B4E1-4965-996F-B1838AD61C57}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECFA02E-18C8-4F48-91B1-30F780A5C2E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="21324" windowHeight="11700" xr2:uid="{E5D9045D-4AFD-41AB-A4FF-A1E120BF2E10}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="21732" windowHeight="11700" xr2:uid="{E5D9045D-4AFD-41AB-A4FF-A1E120BF2E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
